--- a/dtpu_configurations/only_integer32/100mhz/mxu_8x8/power.xlsx
+++ b/dtpu_configurations/only_integer32/100mhz/mxu_8x8/power.xlsx
@@ -127,7 +127,7 @@
     <col min="3" max="3" width="9.84375" customWidth="true"/>
     <col min="4" max="4" width="8.75" customWidth="true"/>
     <col min="5" max="5" width="8.75" customWidth="true"/>
-    <col min="6" max="6" width="10.3125" customWidth="true"/>
+    <col min="6" max="6" width="8.75" customWidth="true"/>
     <col min="7" max="7" width="8.75" customWidth="true"/>
     <col min="8" max="8" width="8.75" customWidth="true"/>
     <col min="9" max="9" width="8.75" customWidth="true"/>
@@ -175,19 +175,19 @@
         <v>11</v>
       </c>
       <c r="B2" t="n" s="4">
-        <v>0.04378678277134895</v>
+        <v>0.07419359683990479</v>
       </c>
       <c r="C2" t="n" s="4">
-        <v>0.018284041434526443</v>
+        <v>0.02354290895164013</v>
       </c>
       <c r="D2" t="n" s="4">
-        <v>0.013887063600122929</v>
+        <v>0.01641230098903179</v>
       </c>
       <c r="E2" t="n" s="4">
-        <v>0.009633759036660194</v>
+        <v>0.009634643793106079</v>
       </c>
       <c r="F2" t="n" s="4">
-        <v>5.894924106542021E-5</v>
+        <v>0.004776808433234692</v>
       </c>
       <c r="G2" t="n" s="4">
         <v>0.0024676513858139515</v>
@@ -199,10 +199,10 @@
         <v>1.2619483470916748</v>
       </c>
       <c r="J2" t="n" s="4">
-        <v>0.12779396772384644</v>
+        <v>0.12814775109291077</v>
       </c>
       <c r="K2" t="n" s="4">
-        <v>1.479813575744629</v>
+        <v>1.5230770111083984</v>
       </c>
     </row>
   </sheetData>
